--- a/biology/Microbiologie/Mycobactéries_atypiques/Mycobactéries_atypiques.xlsx
+++ b/biology/Microbiologie/Mycobactéries_atypiques/Mycobactéries_atypiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mycobact%C3%A9ries_atypiques</t>
+          <t>Mycobactéries_atypiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mycobactéries atypiques sont des mycobactéries qui ne causent ni tuberculose ni lèpre.  Ces mycobactéries provoquent des maladies pulmonaires qui ressemblent à la tuberculose. Ces maladies sont appelés mycobactérioses terme généralement destiné à exclure la tuberculose.  Ils se produisent chez de nombreux animaux, y compris les humains.
 Elles sont souvent présentes dans le sol et l'eau et sont moins virulentes chez l'homme que Mycobacterium tuberculosis se comportant comme des pathogènes opportunistes.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mycobact%C3%A9ries_atypiques</t>
+          <t>Mycobactéries_atypiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Groupe 1. Photochromogènes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>c-à-d colonies blanchâtres dans les cultures faites dans l'obscurité mais devenant pigmentées (jaunes ou rouges) lorsqu'on les expose quelques heures à la lumière.
 Mycobacterium kansasii trouvé surtout dans le pus de lymphadénites, assez rarement dans des syndromes pulmonaires pseudotuberculeux.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mycobact%C3%A9ries_atypiques</t>
+          <t>Mycobactéries_atypiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Groupe 2. Scotochromogènes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>dont les colonies sont pigmentées d'office, sans influence de la lumière.
 Mycobacterium scrofulaceum = Mycobacterium marianum rencontré surtout dans les adénites cervicales chez les enfants.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mycobact%C3%A9ries_atypiques</t>
+          <t>Mycobactéries_atypiques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Groupe 3. Non chromogènes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce sont celles qui ressemblent le plus au Mycobacterium tuberculosis.
 Mycobacterium avium est l'agent de la tuberculose aviaire. Il pousse mieux à 42 °C.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mycobact%C3%A9ries_atypiques</t>
+          <t>Mycobactéries_atypiques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Groupe 4. Mycobactéries à croissance rapide</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">c-à-d moins d'une semaine tout au moins lors des repiquages ; la première culture pouvant prendre 2 à 3 semaines.
 Mycobacterium smegmatis est un commensal inoffensif pouvant causer des erreurs de diagnostic dans la tuberculose génito-urinaire.
